--- a/src/main/resources/ejemploDA.xlsx
+++ b/src/main/resources/ejemploDA.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Actividad</t>
   </si>
@@ -37,31 +37,64 @@
     <t>Gas Natural</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Mensual</t>
   </si>
   <si>
-    <t>Diese/Gasoil</t>
+    <t>12/2012</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Anual</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>Gasoil</t>
+  </si>
+  <si>
     <t>Kerosene</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Fuel Oil</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Nafta</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Carbon</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>Carbon de leña</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Lena</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>Combustión móvil</t>
@@ -92,10 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/yyyy"/>
-  </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -107,13 +137,23 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -135,7 +175,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -382,231 +425,248 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
-        <v>41244.0</v>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>2012.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
-        <v>41246.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
-        <v>2012.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
-        <v>2012.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4">
-        <v>41246.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
-        <v>41250.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2012.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4">
-        <v>41244.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2012.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4">
-        <v>41246.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4">
-        <v>41244.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <drawing r:id="rId1"/>

--- a/src/main/resources/ejemploDA.xlsx
+++ b/src/main/resources/ejemploDA.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
   <si>
     <t>Actividad</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Mensual</t>
   </si>
   <si>
-    <t>12/2012</t>
+    <t>may-2022</t>
   </si>
   <si>
     <t>Diesel</t>
@@ -118,7 +118,22 @@
     <t>Logística de productos y residuos</t>
   </si>
   <si>
-    <t>??</t>
+    <t>Producto Transportado</t>
+  </si>
+  <si>
+    <t>Materia prima</t>
+  </si>
+  <si>
+    <t>Medio Transporte</t>
+  </si>
+  <si>
+    <t>Camion</t>
+  </si>
+  <si>
+    <t>Distancia Media</t>
+  </si>
+  <si>
+    <t>Peso Total</t>
   </si>
 </sst>
 </file>
@@ -185,7 +200,18 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -653,13 +679,64 @@
         <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4500.0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -669,6 +746,11 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:C15">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(C3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/ejemploDA.xlsx
+++ b/src/main/resources/ejemploDA.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UTN\Diseño de sistemas\TP\2022-mi-no-mino-grupo-08\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="1005"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -43,9 +51,6 @@
     <t>Mensual</t>
   </si>
   <si>
-    <t>may-2022</t>
-  </si>
-  <si>
     <t>Diesel</t>
   </si>
   <si>
@@ -134,27 +139,47 @@
   </si>
   <si>
     <t>Peso Total</t>
+  </si>
+  <si>
+    <t>052022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -162,7 +187,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -172,55 +197,59 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -410,333 +439,342 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.63"/>
-    <col customWidth="1" min="2" max="2" width="26.5"/>
-    <col customWidth="1" min="5" max="5" width="18.25"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="1">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4500.0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>10</v>
+      <c r="C19" s="1">
+        <v>4500</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -751,6 +789,7 @@
       <formula>LEN(TRIM(C3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/ejemploDA.xlsx
+++ b/src/main/resources/ejemploDA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>Actividad</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>052022</t>
+  </si>
+  <si>
+    <t>4500.33</t>
   </si>
 </sst>
 </file>
@@ -213,6 +216,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -220,8 +225,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,8 +454,8 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -463,30 +466,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
@@ -620,7 +623,7 @@
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -654,7 +657,7 @@
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -688,7 +691,7 @@
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -705,7 +708,7 @@
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -722,7 +725,7 @@
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -739,7 +742,7 @@
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -751,12 +754,12 @@
         <v>38</v>
       </c>
       <c r="C18" s="1">
-        <v>40</v>
+        <v>40.33</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -767,13 +770,13 @@
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="1">
-        <v>4500</v>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>40</v>
       </c>
     </row>
